--- a/biology/Histoire de la zoologie et de la botanique/Lewis_Lindsay_Dyche/Lewis_Lindsay_Dyche.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Lewis_Lindsay_Dyche/Lewis_Lindsay_Dyche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lewis Lindsay Dyche est un zoologiste américain, né le 20 mars 1857 à Berkeley Springs et mort le 20 janvier 1915.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils d’Alexander Dyche et de Mary née Reilly. Il obtient son Bachelor of Arts puis, en 1884, son Bachelor of Sciences à l’université du Kansas. Puis, au même endroit, en 1886, son Master of Arts et, en 1888, son Master of Sciences.
 De 1885 à 1886, il est professeur assistant à l’université du Kansas, de 1886 à 1890, professeur d’anatomie comparée, de 1890 à 1900, professeur de zoologie et conservateur des oiseaux et des mammifères au Muséum de l’université, de 1900 à 1915, professeur de taxidermie et de taxinomie zoologique.
